--- a/mc/rainbow/TWF.FIMTX HOT  _rainbow Back-Testing Strategy Performance Report.xlsx
+++ b/mc/rainbow/TWF.FIMTX HOT  _rainbow Back-Testing Strategy Performance Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\A-Deep-RL-Framework-for-Index-futures-Trading\mc\rainbow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568F7B49-9BCD-4604-B317-05E2043D0701}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AFD00DA-5E9B-4A73-B9F8-4107FE6381ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12540" xr2:uid="{92AEA955-55DE-4E24-93F7-F92A69F9C420}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="9585" xr2:uid="{1E88E134-24F9-4F80-84E3-BEA0593B370D}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Analysis" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>Strategy Performance Summary</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Trading Period</t>
   </si>
   <si>
-    <t>11 Yrs, 1 Mth, 12 Dys</t>
+    <t>11 Yrs, 4 Mths, 19 Dys</t>
   </si>
   <si>
     <t>Time in the Market</t>
   </si>
   <si>
-    <t>9 Yrs, 2 Mths, 2 Dys</t>
+    <t>9 Yrs, 5 Mths, 3 Dys</t>
   </si>
   <si>
     <t>Percent in the Market</t>
@@ -658,7 +658,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F03CB0-158C-41D2-9B84-68575E637B84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061E3752-58D7-4425-88FC-22B96166368F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +702,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290FEC6C-2622-4EB5-BA62-27D2F2C6C5E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D5E0F1-6DAF-4C7E-A251-200BCCF668EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +746,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5339FFF-393A-439E-A3B2-E36894804E5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBED1F3-526E-46D2-83CB-E3B7360104F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +790,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE294E69-4C04-430C-B6A3-79F3DE071940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44468ABB-86B5-411E-BCB4-F63D7D20F1ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114EB030-0E0A-463A-BDD0-2FF547FC291D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73488A4-7374-4634-8F98-E6BC6857EFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C496C92-5127-427A-B0EF-6183E45BA38D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5B44B0-A980-4706-9F4B-074EAD738AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +922,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDBC719-BFC9-44A6-902E-B4B81EFDA87D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D2E435-6AFB-44A0-B2A5-DBB1EBDFAF1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBA1847-F58B-4C53-94CA-BD15854AD0F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB56BDF-CD39-4F7B-B4BF-3CEA957C7EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064CA64B-B77A-4C02-AAB7-66DEE2A71E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB366AE2-FCE2-42A4-AA49-5B89EFA022D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DCFA42-8069-4C6B-A546-9FCF7CF8D3A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB9EC95-7593-489E-B223-11A353B071E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E26D6C5-5EBC-4CAB-BBC6-AEEB69C3DAC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE394DA5-B982-450C-8634-9DBC845E9966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671311CD-B9C1-4488-9438-C0B2E1582E89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31CC92E-C2BF-4147-8FF1-FEBD1EEE6D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012C1453-A40E-4D31-8901-392421A1CE27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E4DCAE-1D3C-42DA-B5CE-0097D8FF940C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB64295-4201-4CAE-AEDF-1DB5C3416349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E8F6CF-F9F2-4652-9C8B-92625CE4CBB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A005A5CF-D7C7-49A5-90AB-6E55D3C14F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCEC591-7954-41D7-A5F1-A653AB9B046A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDA4D74-D9D1-4301-A1EA-31E7DEF1833F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A705CBC8-844C-49F6-8371-43D5BAE7C7BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1367,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60F007F-3D3F-4EBB-84A9-6F8887F6DB51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A391B6D7-F8DA-4818-B767-DCE81F97C650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D4A9E7-7780-43F4-A448-A22D94F0666B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9445A666-0881-4965-B15B-D8E5C9E73CED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E052057-CD85-43D4-AE5B-CF299A8999CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC13CDD1-7612-4C8E-AEA7-7C6ECE3CF5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9439F700-D962-410E-88D4-04E26AEB2CDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1E403E-74C3-407C-AA59-006974365FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F18B4-2E47-4AE1-A457-4FF1D8C9A0AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB0FEEA-053C-4080-95B6-9CAA9D899DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4863016-FAD9-4E0D-8087-9340B866C2F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADADFB9-6DAC-43B3-8F0F-EB621D1ACFA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25C63B-1700-4D3B-9C00-94A8308A2CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133A46DF-AAD4-4017-810E-0A6433FD4D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1680,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7F2D87-0736-485B-9FC8-A4CCC3DDD709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941047DD-ACE5-4329-822A-0AB173E48829}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D17E856-A7AA-4CC4-A687-84FB9C85B7E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CD514F-00A5-4D13-AA05-383304F082D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDF967E-D228-482E-B1BF-81692B80431B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73411BA-53CD-4B69-ADC2-E943328400B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF462A-757C-4D97-B966-BB6D40631291}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14828996-7FE1-477B-9976-AB125C21E37D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD762FD-9B89-4F89-BD0E-71DB05C5FF11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF48ACF0-ACE1-4DEE-B9E0-B6746D47E103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0B90FB-B0BC-4CA8-BBAD-6F30590C7D57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F59B041-EC61-4CFC-A94B-4CA6A27446E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEACED68-7CBF-4BA0-B323-F81D8A55CD6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E785E951-3212-447E-A296-BBCD6AD7C9CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1988,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9D1F2-8625-4AC8-8DDF-FBF11779DC28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B4D53D-AA8A-498D-89CD-CD9DD852C884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD042C-5B69-4BE3-80DC-10CAF2C7A637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0803809F-9998-4D9B-9FBB-0857B3BF1EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE60433-36EA-48C0-954A-FC67D9212E56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CE30AF-A4FC-41D9-91FC-F9F510FC3673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D915314-36D9-482A-83FF-2A64AD8F0288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8307C09A-A6D4-453E-8F7B-144BB44CF4B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2164,7 @@
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87A9525-79FF-469B-8CF4-80192A9DA17F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3631F1FC-00B7-4248-951C-6B745A138F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8601F68F-7D95-48C9-AD3E-D06E60B00452}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039BB741-4B97-4A27-9EAC-072C5D8D8A81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871C80FF-4015-499B-9E89-9406B87979D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B017BA2-71CB-4F1A-B201-62528835628D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CBF78E-C769-4625-AB83-699B690C25FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A49912-668C-42E4-95C3-8E7737102F50}">
   <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>3630400</v>
+        <v>4089000</v>
       </c>
       <c r="C4" s="3">
-        <v>3630400</v>
+        <v>4089000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -2623,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>7387000</v>
+        <v>7979600</v>
       </c>
       <c r="C5" s="3">
-        <v>7387000</v>
+        <v>7979600</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>-3756600</v>
+        <v>-3890600</v>
       </c>
       <c r="C6" s="3">
-        <v>-3756600</v>
+        <v>-3890600</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2651,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>2708235.6237731436</v>
+        <v>3117397.7198022688</v>
       </c>
       <c r="C7" s="3">
-        <v>2708235.6237731436</v>
+        <v>3117397.7198022688</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>6758176.800728512</v>
+        <v>7309966.843333574</v>
       </c>
       <c r="C8" s="3">
-        <v>6758176.800728512</v>
+        <v>7309966.843333574</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>-4049941.1769553684</v>
+        <v>-4192569.1235313052</v>
       </c>
       <c r="C9" s="3">
-        <v>-4049941.1769553684</v>
+        <v>-4192569.1235313052</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>2041800</v>
+        <v>2469200</v>
       </c>
       <c r="C10" s="3">
-        <v>2041800</v>
+        <v>2469200</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>4507200</v>
+        <v>5072200</v>
       </c>
       <c r="C11" s="3">
-        <v>4507200</v>
+        <v>5072200</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>-2465400</v>
+        <v>-2603000</v>
       </c>
       <c r="C12" s="3">
-        <v>-2465400</v>
+        <v>-2603000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>8.9772502472799207</v>
+        <v>10.111275964391691</v>
       </c>
       <c r="C14" s="4">
-        <v>8.9772502472799207</v>
+        <v>10.111275964391691</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>3.6303999999999998</v>
+        <v>4.0890000000000004</v>
       </c>
       <c r="C15" s="4">
-        <v>3.6303999999999998</v>
+        <v>4.0890000000000004</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -2833,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>8.1987353206865397</v>
+        <v>9.2344173441734423</v>
       </c>
       <c r="C20">
-        <v>8.1987353206865397</v>
+        <v>9.2344173441734423</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.966405792471916</v>
+        <v>2.0509947051868607</v>
       </c>
       <c r="C21">
-        <v>1.966405792471916</v>
+        <v>2.0509947051868607</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.6687098664996214</v>
+        <v>1.7435530883213097</v>
       </c>
       <c r="C22">
-        <v>1.6687098664996214</v>
+        <v>1.7435530883213097</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.8281820394256509</v>
+        <v>1.9485977718017673</v>
       </c>
       <c r="C23">
-        <v>1.8281820394256509</v>
+        <v>1.9485977718017673</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>302500</v>
+        <v>308000</v>
       </c>
       <c r="C26" s="3">
-        <v>302500</v>
+        <v>308000</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -2930,11 +2930,11 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-36500</v>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -2945,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>0.32757005928853755</v>
+        <v>0.36031537997587459</v>
       </c>
       <c r="C28" s="4">
-        <v>0.32757005928853755</v>
+        <v>0.36031537997587459</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>5</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>2.729750494071146E-2</v>
+        <v>3.0026281664656217E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>2.729750494071146E-2</v>
+        <v>3.0026281664656217E-2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -2973,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="C30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2987,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>26820.149253731342</v>
+        <v>29846.715328467155</v>
       </c>
       <c r="C31" s="3">
-        <v>26820.149253731342</v>
+        <v>29846.715328467155</v>
       </c>
       <c r="D31" s="3">
-        <v>26820.149253731342</v>
+        <v>29846.715328467155</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3001,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>65943.742005985623</v>
+        <v>68708.553336768789</v>
       </c>
       <c r="C32" s="3">
-        <v>65943.742005985623</v>
+        <v>68708.553336768789</v>
       </c>
       <c r="D32" s="3">
-        <v>65943.742005985623</v>
+        <v>68708.553336768789</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C33">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>0.45695364238410596</v>
+        <v>0.46103896103896103</v>
       </c>
       <c r="C34" s="4">
-        <v>0.45695364238410596</v>
+        <v>0.46103896103896103</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>66.215526659728411</v>
+        <v>69.015100512361869</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.32453387203317735</v>
+        <v>0.3416721628136673</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.1242183102770391</v>
+        <v>1.1835870910504349</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.57688113773973193</v>
+        <v>0.60499413548786607</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.0980926257775364E-2</v>
+        <v>1.1481116073216642E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114.88663854547856</v>
+        <v>134.76171975258518</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>14.225705329153605</v>
+        <v>16.022727272727273</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>13.21587186021114</v>
+        <v>14.885329450309429</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>8.1987353206865397</v>
+        <v>9.2344173441734423</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>8.0007836990595607</v>
+        <v>9.6755485893416928</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>7.4328358208955221</v>
+        <v>8.9887149617764841</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>4.6111111111111107</v>
+        <v>5.5763324299909662</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>10.612208557104795</v>
+        <v>12.215508306435222</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>9.8588846879255332</v>
+        <v>11.348371750281284</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>6.1161599452871362</v>
+        <v>7.0401935858226485</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>0.82509881422924902</v>
+        <v>0.82774427020506636</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A832D78-C3B5-4D2D-8B83-B9C44A27EE5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08012252-0D24-495E-9DE9-048FE81F4AC3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3330,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E25EEF-75F8-4FFF-9205-FEB8FBA3B20B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF11C4D-0669-49F5-977B-5764B9ABE5F9}">
   <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3362,10 +3362,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C4">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>79</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.45695364238410596</v>
+        <v>0.46103896103896103</v>
       </c>
       <c r="C8" s="4">
-        <v>0.45695364238410596</v>
+        <v>0.46103896103896103</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="3">
-        <v>12021.192052980132</v>
+        <v>13275.974025974025</v>
       </c>
       <c r="C9" s="3">
-        <v>12021.192052980132</v>
+        <v>13275.974025974025</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>53528.985507246376</v>
+        <v>56194.366197183102</v>
       </c>
       <c r="C10" s="3">
-        <v>53528.985507246376</v>
+        <v>56194.366197183102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3460,10 +3460,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>-22906.09756097561</v>
+        <v>-23437.349397590362</v>
       </c>
       <c r="C11" s="3">
-        <v>-22906.09756097561</v>
+        <v>-23437.349397590362</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3474,10 +3474,10 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>2.3368880432274945</v>
+        <v>2.397641697612809</v>
       </c>
       <c r="C12">
-        <v>2.3368880432274945</v>
+        <v>2.397641697612809</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3516,10 +3516,10 @@
         <v>86</v>
       </c>
       <c r="B15">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="C15">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -3530,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="B16">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="C16">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="C17">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -3572,10 +3572,10 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C19">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3586,10 +3586,10 @@
         <v>91</v>
       </c>
       <c r="B20">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="C20">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -3616,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="3">
-        <v>58101.305283536465</v>
+        <v>61066.982559997472</v>
       </c>
       <c r="C26" s="3">
-        <v>57410.407768375728</v>
+        <v>61135.96958048347</v>
       </c>
       <c r="D26" s="3">
-        <v>27883.688516604769</v>
+        <v>28342.721628230476</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>97</v>
       </c>
       <c r="B27" s="3">
-        <v>70122.497336516593</v>
+        <v>74342.956585971508</v>
       </c>
       <c r="C27" s="3">
-        <v>110939.39327562212</v>
+        <v>117330.33577766658</v>
       </c>
       <c r="D27" s="3">
-        <v>4977.590955629159</v>
+        <v>4905.3722306401141</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="3">
-        <v>-46080.11323055633</v>
+        <v>-47791.008534023444</v>
       </c>
       <c r="C28" s="3">
-        <v>-3881.422261129353</v>
+        <v>-4941.6033833003667</v>
       </c>
       <c r="D28" s="3">
-        <v>-50789.786077580378</v>
+        <v>-51780.071025820835</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,13 +3658,13 @@
         <v>99</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="B30" s="3">
-        <v>1588600</v>
+        <v>1619800</v>
       </c>
       <c r="C30" s="3">
-        <v>2879800</v>
+        <v>2907400</v>
       </c>
       <c r="D30" s="3">
-        <v>-1291200</v>
+        <v>-1287600</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>42452.805280528053</v>
+        <v>44731.493506493505</v>
       </c>
       <c r="C38" s="3">
-        <v>-21539.603960396038</v>
+        <v>-22135.714285714286</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="B41" s="4">
-        <v>2.3340453274907545E-2</v>
+        <v>2.3877243691800928E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.1607433352540398E-2</v>
+        <v>-1.1709890759766762E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="3">
-        <v>49594.836408599353</v>
+        <v>52963.453828185928</v>
       </c>
       <c r="C42" s="3">
-        <v>27014.477646100066</v>
+        <v>27622.889009080922</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>92047.641689127413</v>
+        <v>97694.947334679426</v>
       </c>
       <c r="C43" s="3">
-        <v>5474.8736857040285</v>
+        <v>5487.1747233666356</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="3">
-        <v>-7142.0311280713013</v>
+        <v>-8231.9603216924188</v>
       </c>
       <c r="C44" s="3">
-        <v>-48554.081606496104</v>
+        <v>-49758.603294795204</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>112</v>
       </c>
       <c r="B49">
-        <v>-0.16036885449433266</v>
+        <v>-6.4880669593597576E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="B50">
-        <v>0.12741011221278997</v>
+        <v>5.1731796737254365E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>12021.19205298013</v>
+        <v>13275.974025974028</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="3">
-        <v>44784.210526315794</v>
+        <v>49097.435897435898</v>
       </c>
       <c r="D63" s="3">
-        <v>-27663.157894736843</v>
+        <v>-29476.923076923078</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
-        <v>31444.444444444445</v>
+        <v>40953.333333333336</v>
       </c>
       <c r="D65" s="3">
-        <v>-16000</v>
+        <v>-14400</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>70680</v>
       </c>
       <c r="D66" s="3">
-        <v>-11760</v>
+        <v>-18880</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C70" s="3">
-        <v>-28428.571428571428</v>
+        <v>-30513.513513513517</v>
       </c>
       <c r="D70" s="3">
-        <v>42931.428571428565</v>
+        <v>46470.270270270274</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4F8521-FC91-49A4-80A8-4576FCE80054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04536FDA-D26F-4BAC-A2B3-E111797E86B9}">
   <dimension ref="A1:G838"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4298,22 +4298,22 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>293000</v>
+        <v>788100</v>
       </c>
       <c r="C40" s="4">
-        <v>6.8125276105001284E-2</v>
+        <v>0.18324071705922015</v>
       </c>
       <c r="D40" s="3">
-        <v>329500</v>
+        <v>922100</v>
       </c>
       <c r="E40" s="3">
-        <v>-36500</v>
+        <v>-134000</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" s="4">
-        <v>0.66666666666700003</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D08832-5AAC-4E86-AD82-3F3BA05FDDEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F018F45A-7211-4483-9095-508DADC33041}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
